--- a/full_detailed_aggregated_report_brand_ten_west.xlsx
+++ b/full_detailed_aggregated_report_brand_ten_west.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,27 +518,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CRICUT</t>
+          <t>BIHLERFLEX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$927.73</t>
+          <t>$22.99</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$-309.75</t>
+          <t>$-14.11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$-139.38</t>
+          <t>$-3.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$-296.88</t>
+          <t>$-4.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$-103.66</t>
+          <t>$-0.20</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -573,34 +573,34 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>$-32.10</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>$-8.02</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>$70.04</t>
+          <t>$0.24</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>7.55%</t>
+          <t>1.04%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HY-C</t>
+          <t>CONCORD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$-76.16</t>
+          <t>$-0.99</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -655,12 +655,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>$-63.36</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>$-31.68</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>$-107.84</t>
+          <t>$-0.99</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -682,27 +682,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LITANIA</t>
+          <t>CRICUT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$15,417.40</t>
+          <t>$2,060.64</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$-6,990.60</t>
+          <t>$-441.25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$-2,375.91</t>
+          <t>$-309.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$-529.72</t>
+          <t>$-740.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$-277.42</t>
+          <t>$-18.91</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -722,69 +722,69 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-0.55</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$-89.66</t>
+          <t>$-171.59</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-0.18</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>$-188.07</t>
+          <t>$-70.71</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>$-47.01</t>
+          <t>$-17.68</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>190</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>$5,384.50</t>
+          <t>$379.64</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>34.92%</t>
+          <t>18.42%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MWI-VETONE</t>
+          <t>HY-C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$24.99</t>
+          <t>$94.99</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$-13.90</t>
+          <t>$-28.67</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$-3.75</t>
+          <t>$-14.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$-3.68</t>
+          <t>$-23.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -809,22 +809,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-593.50</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-0.01</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-152.32</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-76.16</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -834,39 +834,39 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>$3.66</t>
+          <t>$-641.27</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>14.65%</t>
+          <t>-675.09%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PATRICIA NASH</t>
+          <t>LITANIA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$5,207.00</t>
+          <t>$22,147.35</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$-2,327.00</t>
+          <t>$-11,708.80</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$-765.78</t>
+          <t>$-3,567.35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$-197.39</t>
+          <t>$-529.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>$-47.73</t>
+          <t>$-277.42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -886,69 +886,69 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>$-2.26</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$-20.54</t>
+          <t>$-90.33</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-2.14</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>$-265.03</t>
+          <t>$-216.63</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>$-265.03</t>
+          <t>$-54.15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>85</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>$1,629.00</t>
+          <t>$6,194.86</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>31.28%</t>
+          <t>27.97%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VIROX</t>
+          <t>MWI-VETONE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$271,751.40</t>
+          <t>$24.99</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$-98,771.67</t>
+          <t>$-13.90</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$-39,128.88</t>
+          <t>$-3.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$-55,460.44</t>
+          <t>$-3.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -958,22 +958,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$-13,830.67</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$-13,830.67</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$-1,301.85</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$-1,249.58</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -983,109 +983,273 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>$-3,941.92</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>$-3,941.92</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1,053</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>$58,066.39</t>
+          <t>$3.66</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>21.37%</t>
+          <t>14.65%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>PATRICIA NASH</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>$7,216.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$-3,312.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$-1,062.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$-267.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>$-59.47</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>$-5.61</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>$-117.40</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>$-0.70</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>$-317.24</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>$-317.24</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>$2,132.42</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>29.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>VIROX</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>$271,751.40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$-98,771.67</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$-39,128.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$-55,460.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>$-13,830.67</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>$-13,830.67</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>$-1,301.85</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>$-1,346.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>$-26.31</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>$-3,773.79</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>$-3,773.79</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1,053</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>$58,111.79</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>21.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>WABASH VALLEY FARMS</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>$108,035.92</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>$-42,436.39</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$-16,102.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$-20,130.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>$-2,232.00</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>$-2,232.00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>$-2,932.78</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>$-1,900.67</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>$-950.33</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2,626</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>$23,251.49</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>21.52%</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>$109,799.32</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$-44,673.16</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$-16,366.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$-20,540.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>$-2,301.96</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>$-2,301.96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>$-3,034.65</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>$-10.59</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>$-1,994.42</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>$-997.20</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2,666</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>$21,875.03</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>19.92%</t>
         </is>
       </c>
     </row>

--- a/full_detailed_aggregated_report_brand_ten_west.xlsx
+++ b/full_detailed_aggregated_report_brand_ten_west.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Amazon Top-line Sales (ATS)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Product Cost</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Referral Fee</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FBA Fulfillment Fee</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>other transaction fees</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Shipping/Kitting Fees</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Adjusted Shipping/Kitting Fees</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Labeling/Polybagging Fees</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Storage Fees</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Allocated fees (Premium Services Fee + Subscription)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Cost of Returns</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Adjusted Cost of Returns</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -523,29 +523,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>$22.99</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$-14.11</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>$-3.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>$-4.99</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>$0.00</t>
@@ -563,14 +563,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>$-0.20</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>$0.00</t>
@@ -583,7 +583,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -600,12 +600,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CONCORD</t>
+          <t>BUDDEEZ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$-0.99</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-2.20</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>$-0.99</t>
+          <t>$-2.20</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -682,27 +682,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CRICUT</t>
+          <t>CONCORD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$2,060.64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$-441.25</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$-309.43</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$-740.32</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$-18.91</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -722,74 +722,74 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$-0.55</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$-171.59</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>$-0.18</t>
+          <t>$-1.55</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>$-70.71</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>$-17.68</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>$379.64</t>
+          <t>$-1.55</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>18.42%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HY-C</t>
+          <t>CRICUT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$94.99</t>
+          <t>190</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$-28.67</t>
+          <t>$2,060.64</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$-14.25</t>
+          <t>$-441.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$-23.67</t>
+          <t>$-309.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-740.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-18.91</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -809,74 +809,74 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$-593.50</t>
+          <t>$-0.55</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>$-0.01</t>
+          <t>$-173.97</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>$-152.32</t>
+          <t>$-0.18</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>$-76.16</t>
+          <t>$-70.71</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>$-17.68</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>$-641.27</t>
+          <t>$377.26</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-675.09%</t>
+          <t>18.31%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LITANIA</t>
+          <t>HY-C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$22,147.35</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$-11,708.80</t>
+          <t>$94.99</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$-3,567.35</t>
+          <t>$-28.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$-529.72</t>
+          <t>$-14.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-23.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>$-277.42</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -891,69 +891,69 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$-90.33</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>$-2.14</t>
+          <t>$-597.02</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>$-216.63</t>
+          <t>$-0.01</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>$-54.15</t>
+          <t>$-152.32</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>$-76.16</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>$6,194.86</t>
+          <t>$-644.79</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>27.97%</t>
+          <t>-678.80%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MWI-VETONE</t>
+          <t>LITANIA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$24.99</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$-13.90</t>
+          <t>$22,147.35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$-3.75</t>
+          <t>$-11,708.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$-3.68</t>
+          <t>$-3,567.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-529.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-277.42</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -978,69 +978,69 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-90.33</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-2.14</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-216.63</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>$-54.15</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>$3.66</t>
+          <t>$6,194.86</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>14.65%</t>
+          <t>27.97%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PATRICIA NASH</t>
+          <t>MWI-VETONE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$7,216.00</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$-3,312.00</t>
+          <t>$24.99</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$-1,062.72</t>
+          <t>$-13.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$-267.91</t>
+          <t>$-3.75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-3.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>$-59.47</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1050,206 +1050,616 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>$-5.61</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>$-117.40</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>$-0.70</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>$-317.24</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>$-317.24</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>$2,132.42</t>
+          <t>$3.66</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>29.55%</t>
+          <t>14.65%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VIROX</t>
+          <t>PATRICIA NASH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$271,751.40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$-98,771.67</t>
+          <t>$7,216.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$-39,128.88</t>
+          <t>$-3,312.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$-55,460.44</t>
+          <t>$-1,062.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$-267.91</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>$-13,830.67</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>$-13,830.67</t>
+          <t>$-59.47</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>$-1,301.85</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>$-1,346.00</t>
+          <t>$-5.61</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>$-26.31</t>
+          <t>$-118.39</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>$-3,773.79</t>
+          <t>$-0.70</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>$-3,773.79</t>
+          <t>$-317.24</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1,053</t>
+          <t>$-317.24</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>$58,111.79</t>
+          <t>$2,131.43</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>21.38%</t>
+          <t>29.54%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>POPPY &amp; PINE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>$-0.35</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>$-0.35</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>POPSOCKET</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>$-0.02</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>$-0.02</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PURELUXE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>$-0.17</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>$-0.17</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>VIROX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7,723</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$271,751.40</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$-98,771.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$-39,128.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>$-55,460.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>$-13,830.67</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>$-13,830.67</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>$-1,301.85</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>$-1,346.00</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>$-26.31</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>$-3,925.61</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$-3,925.61</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>$57,959.97</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>21.33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>WABASH VALLEY FARMS</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2,666</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>$109,799.32</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$-44,673.16</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>$-16,366.10</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>$-20,540.63</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>$-2,301.96</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>$-2,301.96</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>$-3,034.65</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>$-3,050.59</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>$-10.59</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>$-1,994.42</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>$-997.20</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2,666</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>$21,875.03</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>19.92%</t>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>$21,859.09</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>19.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10,713</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$413,117.68</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$-158,963.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$-60,455.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>$-77,571.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>$-16,488.43</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>$-16,132.63</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>$-1,308.01</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>$-5,380.79</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>$-39.93</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>$-6,676.93</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$-5,388.04</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>$87,877.43</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>21.27%</t>
         </is>
       </c>
     </row>
